--- a/CSharp.xlsx
+++ b/CSharp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rmiao\MyGit\MyDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1031A9E-5734-427A-AA25-FD2F1A2F4527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB7C834-F4DB-4AF0-B710-DFAB72035E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="特性" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Datatable的筛选及转换为List和Rows</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>设定日期格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable的where查询和赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datatable拷贝表和修改列，最后必须要加AcceptChanges才能生效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1435,6 +1443,138 @@
         <a:xfrm>
           <a:off x="45720" y="998220"/>
           <a:ext cx="6675120" cy="1917475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574184</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>108336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F1A1D4-F0BD-4F68-B477-E234CBFDAA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585460" y="17396460"/>
+          <a:ext cx="9009524" cy="1990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189867</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>134799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB78CB63-765D-47B7-BEA2-3FBA34E0820A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17343120"/>
+          <a:ext cx="5066667" cy="3647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65600</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>85167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2D288E-A9D8-4031-A6F0-C8769EC0EBC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21556980"/>
+          <a:ext cx="8600000" cy="4466667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="Q131" sqref="Q131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1852,6 +1992,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1864,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92F4AC3-8DBD-4231-B0CE-E898703C5536}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
